--- a/data/financial_statements/soci/EFX.xlsx
+++ b/data/financial_statements/soci/EFX.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,144 +610,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1244000000</v>
+        <v>1244300000</v>
       </c>
       <c r="C2">
-        <v>1317000000</v>
+        <v>1316700000</v>
       </c>
       <c r="D2">
-        <v>1363000000</v>
+        <v>1363200000</v>
       </c>
       <c r="E2">
-        <v>1253000000</v>
+        <v>1253200000</v>
       </c>
       <c r="F2">
-        <v>1223000000</v>
+        <v>1222900000</v>
       </c>
       <c r="G2">
         <v>1234800000</v>
@@ -742,23 +853,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.0172</v>
+        <v>0.0175</v>
       </c>
       <c r="C3">
-        <v>0.06660000000000001</v>
+        <v>0.0663</v>
       </c>
       <c r="D3">
-        <v>0.1237</v>
+        <v>0.1238</v>
       </c>
       <c r="E3">
-        <v>0.1203</v>
+        <v>0.1204</v>
       </c>
       <c r="F3">
-        <v>0.1448</v>
+        <v>0.1447</v>
       </c>
       <c r="G3">
         <v>0.2564</v>
@@ -864,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>683000000</v>
+        <v>542500000</v>
       </c>
       <c r="C4">
-        <v>682000000</v>
+        <v>542100000</v>
       </c>
       <c r="D4">
-        <v>691000000</v>
+        <v>553400000</v>
       </c>
       <c r="E4">
-        <v>658000000</v>
+        <v>525600000</v>
       </c>
       <c r="F4">
-        <v>606000000</v>
+        <v>489000000</v>
       </c>
       <c r="G4">
         <v>483000000</v>
@@ -986,23 +1097,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>561000000</v>
+        <v>701800000</v>
       </c>
       <c r="C5">
-        <v>635000000</v>
+        <v>774600000</v>
       </c>
       <c r="D5">
-        <v>673000000</v>
+        <v>809799900</v>
       </c>
       <c r="E5">
-        <v>595000000</v>
+        <v>727599900</v>
       </c>
       <c r="F5">
-        <v>617000000</v>
+        <v>733900000</v>
       </c>
       <c r="G5">
         <v>751800000</v>
@@ -1108,8 +1219,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>318000000</v>
@@ -1124,7 +1235,7 @@
         <v>343200000</v>
       </c>
       <c r="F6">
-        <v>344000000</v>
+        <v>344200000</v>
       </c>
       <c r="G6">
         <v>328400000</v>
@@ -1230,8 +1341,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>242900000</v>
@@ -1352,8 +1463,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>47000000</v>
@@ -1393,8 +1504,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>47100000</v>
@@ -1515,23 +1626,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>12000000</v>
+        <v>-23200000</v>
       </c>
       <c r="C10">
-        <v>70000000</v>
+        <v>-39800000</v>
       </c>
       <c r="D10">
-        <v>67000000</v>
+        <v>-28600000</v>
       </c>
       <c r="E10">
-        <v>60000000</v>
+        <v>-114000000</v>
       </c>
       <c r="F10">
-        <v>-7000000</v>
+        <v>-7800000</v>
       </c>
       <c r="G10">
         <v>-28900000</v>
@@ -1637,23 +1748,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>220000000</v>
+        <v>219700000</v>
       </c>
       <c r="C11">
-        <v>265000000</v>
+        <v>264800000</v>
       </c>
       <c r="D11">
-        <v>304000000</v>
+        <v>303800000</v>
       </c>
       <c r="E11">
-        <v>138000000</v>
+        <v>138200000</v>
       </c>
       <c r="F11">
-        <v>265000000</v>
+        <v>265400000</v>
       </c>
       <c r="G11">
         <v>277100000</v>
@@ -1759,23 +1870,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>53000000</v>
+        <v>52800000</v>
       </c>
       <c r="C12">
-        <v>63000000</v>
+        <v>63400000</v>
       </c>
       <c r="D12">
         <v>81000000</v>
       </c>
       <c r="E12">
-        <v>15000000</v>
+        <v>15100000</v>
       </c>
       <c r="F12">
-        <v>59000000</v>
+        <v>58800000</v>
       </c>
       <c r="G12">
         <v>61200000</v>
@@ -1881,8 +1992,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>166900000</v>
@@ -2003,8 +2114,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2053,8 +2164,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1200000</v>
@@ -2175,23 +2286,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>166000000</v>
+        <v>165700000</v>
       </c>
       <c r="C16">
-        <v>201000000</v>
+        <v>200600000</v>
       </c>
       <c r="D16">
-        <v>222000000</v>
+        <v>221800000</v>
       </c>
       <c r="E16">
-        <v>122000000</v>
+        <v>122100000</v>
       </c>
       <c r="F16">
-        <v>205000000</v>
+        <v>205400000</v>
       </c>
       <c r="G16">
         <v>215100000</v>
@@ -2297,23 +2408,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="C17">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="D17">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="E17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G17">
         <v>1.77</v>
@@ -2419,8 +2530,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1.34</v>
@@ -2541,23 +2652,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>122000000</v>
+        <v>122400000</v>
       </c>
       <c r="C19">
-        <v>122000000</v>
+        <v>122400000</v>
       </c>
       <c r="D19">
-        <v>122000000</v>
+        <v>122200000</v>
       </c>
       <c r="E19">
-        <v>122000000</v>
+        <v>121900000</v>
       </c>
       <c r="F19">
-        <v>122000000</v>
+        <v>121900000</v>
       </c>
       <c r="G19">
         <v>121800000</v>
@@ -2663,23 +2774,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>123000000</v>
+        <v>123300000</v>
       </c>
       <c r="C20">
-        <v>123000000</v>
+        <v>123300000</v>
       </c>
       <c r="D20">
-        <v>124000000</v>
+        <v>123500000</v>
       </c>
       <c r="E20">
-        <v>124000000</v>
+        <v>123600000</v>
       </c>
       <c r="F20">
-        <v>124000000</v>
+        <v>123700000</v>
       </c>
       <c r="G20">
         <v>123500000</v>
@@ -2785,23 +2896,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.451</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="C21">
-        <v>0.4822</v>
+        <v>0.5883</v>
       </c>
       <c r="D21">
-        <v>0.4938</v>
+        <v>0.594</v>
       </c>
       <c r="E21">
-        <v>0.4749</v>
+        <v>0.5806</v>
       </c>
       <c r="F21">
-        <v>0.5044999999999999</v>
+        <v>0.6001</v>
       </c>
       <c r="G21">
         <v>0.6088</v>
@@ -2907,20 +3018,20 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.1953</v>
+        <v>0.1952</v>
       </c>
       <c r="C22">
         <v>0.2313</v>
       </c>
       <c r="D22">
-        <v>0.2439</v>
+        <v>0.2438</v>
       </c>
       <c r="E22">
-        <v>0.2013</v>
+        <v>0.2012</v>
       </c>
       <c r="F22">
         <v>0.2234</v>
@@ -3029,23 +3140,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.1768</v>
+        <v>0.1766</v>
       </c>
       <c r="C23">
-        <v>0.2012</v>
+        <v>0.2011</v>
       </c>
       <c r="D23">
-        <v>0.223</v>
+        <v>0.2229</v>
       </c>
       <c r="E23">
-        <v>0.1101</v>
+        <v>0.1103</v>
       </c>
       <c r="F23">
-        <v>0.2167</v>
+        <v>0.217</v>
       </c>
       <c r="G23">
         <v>0.2244</v>
@@ -3151,23 +3262,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.1334</v>
+        <v>0.1332</v>
       </c>
       <c r="C24">
-        <v>0.1526</v>
+        <v>0.1524</v>
       </c>
       <c r="D24">
-        <v>0.1629</v>
+        <v>0.1627</v>
       </c>
       <c r="E24">
         <v>0.0974</v>
       </c>
       <c r="F24">
-        <v>0.1676</v>
+        <v>0.168</v>
       </c>
       <c r="G24">
         <v>0.1742</v>
@@ -3273,23 +3384,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>386000000</v>
+        <v>385800000</v>
       </c>
       <c r="C25">
-        <v>447000000</v>
+        <v>446500000</v>
       </c>
       <c r="D25">
-        <v>472000000</v>
+        <v>471699900</v>
       </c>
       <c r="E25">
-        <v>393000000</v>
+        <v>386900000</v>
       </c>
       <c r="F25">
-        <v>392000000</v>
+        <v>391700000</v>
       </c>
       <c r="G25">
         <v>425700000</v>
@@ -3395,8 +3506,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>242900000</v>
@@ -3517,8 +3628,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>166900000</v>
@@ -3639,8 +3750,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AL28">
         <v>-600000</v>
@@ -3653,23 +3764,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>167000000</v>
+        <v>166900000</v>
       </c>
       <c r="C29">
-        <v>201000000</v>
+        <v>201400000</v>
       </c>
       <c r="D29">
-        <v>223000000</v>
+        <v>222800000</v>
       </c>
       <c r="E29">
-        <v>123000000</v>
+        <v>123100000</v>
       </c>
       <c r="F29">
-        <v>207000000</v>
+        <v>206600000</v>
       </c>
       <c r="G29">
         <v>215900000</v>
@@ -3775,8 +3886,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1.3636</v>
@@ -3897,8 +4008,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.3536</v>
@@ -4019,8 +4130,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AL32">
         <v>0</v>
@@ -4033,8 +4144,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="AK33">
         <v>-0.01</v>
@@ -4050,8 +4161,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1.3636</v>
@@ -4172,8 +4283,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>1.3536</v>
@@ -4294,8 +4405,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>123300000</v>
@@ -4416,23 +4527,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>0.3103</v>
+        <v>0.3101</v>
       </c>
       <c r="C37">
-        <v>0.3394</v>
+        <v>0.3391</v>
       </c>
       <c r="D37">
-        <v>0.3463</v>
+        <v>0.346</v>
       </c>
       <c r="E37">
-        <v>0.3136</v>
+        <v>0.3087</v>
       </c>
       <c r="F37">
-        <v>0.3205</v>
+        <v>0.3203</v>
       </c>
       <c r="G37">
         <v>0.3448</v>
@@ -4538,14 +4649,14 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.2853</v>
+        <v>0.2852</v>
       </c>
       <c r="C38">
-        <v>0.209</v>
+        <v>0.2091</v>
       </c>
       <c r="D38">
         <v>-0.1456</v>
